--- a/EXCEL/parent_phonenumbers.xlsx
+++ b/EXCEL/parent_phonenumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHKT_12_FINALLY\KHKT_12_FINAL\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC7EDA1-BB51-4D16-BC4C-6E71F539B629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB9E46-E305-4B68-B8BB-CEC06527DE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2508" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Họ và tên học sinh </t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>HuaBaoThy</t>
+  </si>
+  <si>
+    <t>+84946280405</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,7 +370,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +406,9 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">

--- a/EXCEL/parent_phonenumbers.xlsx
+++ b/EXCEL/parent_phonenumbers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHKT_12_FINALLY\KHKT_12_FINAL\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB9E46-E305-4B68-B8BB-CEC06527DE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54895527-E02B-4849-B43C-90C0954A5709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3456" yWindow="1308" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Họ và tên học sinh </t>
   </si>
@@ -34,9 +34,6 @@
     <t>Số điện thoại phụ huynh</t>
   </si>
   <si>
-    <t>+84967252462</t>
-  </si>
-  <si>
     <t>LeVanB</t>
   </si>
   <si>
@@ -46,7 +43,7 @@
     <t>HuaBaoThy</t>
   </si>
   <si>
-    <t>+84946280405</t>
+    <t>+84123456789</t>
   </si>
 </sst>
 </file>
@@ -370,7 +367,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,11 +387,9 @@
     </row>
     <row r="2" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -407,18 +402,18 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
